--- a/ENGSCI 760/Assignments/2/Book1.xlsx
+++ b/ENGSCI 760/Assignments/2/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses_Part_IV\ENGSCI 760\Assignments\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A185515F-ACA7-45B1-96A2-00E9EC1484EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE04A48-8CE9-4D43-893C-A131365BA987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{D53C2E47-CAC7-407D-8377-F6E0C93DB9BD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -403,147 +403,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422F79D8-F75B-45E8-AFB6-8F449CC5F28B}">
   <dimension ref="B4:AW16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D4">
         <v>0.3</v>
       </c>
       <c r="E4">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F4">
         <v>0.1</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" ref="I4:M8">MMULT(B4:F8,B4:F8)</f>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.24</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="K4">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="L4">
-        <v>0.09</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="M4">
-        <v>2.0000000000000004E-2</v>
+        <v>0.12000000000000001</v>
       </c>
       <c r="O4" cm="1">
         <f t="array" ref="O4:S8">MMULT(_xlfn.ANCHORARRAY(I4),_xlfn.ANCHORARRAY(I4))</f>
-        <v>0.3896</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.21449999999999997</v>
+        <v>0.49920000000000003</v>
       </c>
       <c r="Q4">
-        <v>0.20069999999999999</v>
+        <v>0.37440000000000001</v>
       </c>
       <c r="R4">
-        <v>0.15030000000000002</v>
+        <v>1.6000000000000007E-3</v>
       </c>
       <c r="S4">
-        <v>4.4900000000000002E-2</v>
+        <v>0.12480000000000001</v>
       </c>
       <c r="U4" cm="1">
         <f t="array" ref="U4:Y8">MMULT(_xlfn.ANCHORARRAY(O4),_xlfn.ANCHORARRAY(O4))</f>
-        <v>0.39849284000000001</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.21311033999999998</v>
+        <v>0.49999872000000001</v>
       </c>
       <c r="W4">
-        <v>0.19666791</v>
+        <v>0.37499904000000001</v>
       </c>
       <c r="X4">
-        <v>0.14748435000000001</v>
+        <v>2.5600000000000022E-6</v>
       </c>
       <c r="Y4">
-        <v>4.4244560000000002E-2</v>
+        <v>0.12499968</v>
       </c>
       <c r="AA4" cm="1">
         <f t="array" ref="AA4:AE8">MMULT(_xlfn.ANCHORARRAY(U4),_xlfn.ANCHORARRAY(U4))</f>
-        <v>0.3983606779366925</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.21311475766445998</v>
+        <v>0.49999999999672323</v>
       </c>
       <c r="AC4">
-        <v>0.19672130423192222</v>
+        <v>0.37499999999754241</v>
       </c>
       <c r="AD4">
-        <v>0.14754097017889653</v>
+        <v>6.5536000000000112E-12</v>
       </c>
       <c r="AE4">
-        <v>4.4262289988028808E-2</v>
+        <v>0.12499999999918081</v>
       </c>
       <c r="AG4" cm="1">
         <f t="array" ref="AG4:AK8">MMULT(_xlfn.ANCHORARRAY(U4),_xlfn.ANCHORARRAY(AA4))</f>
-        <v>0.39836065574016249</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.21311475409942901</v>
+        <v>0.5</v>
       </c>
       <c r="AI4">
-        <v>0.1967213114748777</v>
+        <v>0.375</v>
       </c>
       <c r="AJ4">
-        <v>0.14754098360445841</v>
+        <v>1.6777216000000042E-17</v>
       </c>
       <c r="AK4">
-        <v>4.4262295081072461E-2</v>
+        <v>0.125</v>
       </c>
       <c r="AM4" cm="1">
         <f t="array" ref="AM4:AQ8">MMULT(_xlfn.ANCHORARRAY(AA4),_xlfn.ANCHORARRAY(AG4))</f>
-        <v>0.39836065573770502</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.21311475409836067</v>
+        <v>0.5</v>
       </c>
       <c r="AO4">
-        <v>0.19672131147540986</v>
+        <v>0.375</v>
       </c>
       <c r="AP4">
-        <v>0.1475409836065574</v>
+        <v>1.0995116277760046E-28</v>
       </c>
       <c r="AQ4">
-        <v>4.4262295081967211E-2</v>
+        <v>0.125</v>
       </c>
       <c r="AS4" cm="1">
         <f t="array" ref="AS4:AW8">MMULT(_xlfn.ANCHORARRAY(AG4),_xlfn.ANCHORARRAY(AM4))</f>
-        <v>0.39836065573770507</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.2131147540983607</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
-        <v>0.19672131147540989</v>
+        <v>0.375</v>
       </c>
       <c r="AV4">
-        <v>0.14754098360655743</v>
+        <v>1.8446744073709675E-45</v>
       </c>
       <c r="AW4">
-        <v>4.4262295081967225E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="5" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -555,120 +555,120 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.18000000000000002</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.19000000000000003</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.0000000000000011E-2</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.40410000000000001</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.20620000000000002</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.19170000000000004</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.15120000000000003</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>4.6800000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.39820104000000001</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.21318463000000001</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.19681164000000001</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.14755068000000002</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>4.4252010000000008E-2</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.39836060989225924</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.21311475682772354</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.19672133047650991</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.14754100215907712</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>4.4262300644430305E-2</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.39836065572965218</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.2131147540972545</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.19672131147811253</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.14754098361125795</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>4.4262295083723015E-2</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.39836065573770502</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.2131147540983607</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0.19672131147540989</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.14754098360655743</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>4.4262295081967218E-2</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.39836065573770507</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.21311475409836073</v>
+        <v>1</v>
       </c>
       <c r="AU5">
-        <v>0.19672131147540989</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.14754098360655743</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>4.4262295081967225E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -677,353 +677,353 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4098</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.2142</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.19270000000000001</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.14129999999999998</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>4.2000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.39822339000000001</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.21308822999999999</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.19676431000000003</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.14762808000000002</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>4.429599E-2</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.39836064186146375</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.21311474700439981</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.1967213140552459</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.14754099642348423</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>4.42623006554064E-2</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.39836065573760387</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.21311475409716257</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.19672131147496963</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.14754098360769322</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>4.4262295082570874E-2</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.39836065573770502</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.21311475409836064</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.19672131147540989</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.14754098360655743</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>4.4262295081967225E-2</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.39836065573770513</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.21311475409836075</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.19672131147540992</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>0.14754098360655746</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>4.4262295081967225E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
         <v>0.3</v>
       </c>
       <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7">
         <v>0.1</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="I7">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.21</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="K7">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="L7">
-        <v>0.1</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="M7">
-        <v>0.03</v>
+        <v>0.12000000000000001</v>
       </c>
       <c r="O7">
-        <v>0.40109999999999996</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.2175</v>
+        <v>0.49920000000000003</v>
       </c>
       <c r="Q7">
-        <v>0.19739999999999999</v>
+        <v>0.37440000000000001</v>
       </c>
       <c r="R7">
-        <v>0.14230000000000001</v>
+        <v>1.6000000000000007E-3</v>
       </c>
       <c r="S7">
-        <v>4.1700000000000008E-2</v>
+        <v>0.12480000000000001</v>
       </c>
       <c r="U7">
-        <v>0.39837768000000001</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.21306243</v>
+        <v>0.49999872000000001</v>
       </c>
       <c r="W7">
-        <v>0.19669370999999999</v>
+        <v>0.37499904000000001</v>
       </c>
       <c r="X7">
-        <v>0.14758075000000001</v>
+        <v>2.5600000000000022E-6</v>
       </c>
       <c r="Y7">
-        <v>4.4285430000000001E-2</v>
+        <v>0.12499968</v>
       </c>
       <c r="AA7">
-        <v>0.39836067386359647</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.21311474891626409</v>
+        <v>0.49999999999672323</v>
       </c>
       <c r="AC7">
-        <v>0.19672130232005791</v>
+        <v>0.37499999999754241</v>
       </c>
       <c r="AD7">
-        <v>0.14754098000222024</v>
+        <v>6.5536000000000112E-12</v>
       </c>
       <c r="AE7">
-        <v>4.4262294897861307E-2</v>
+        <v>0.12499999999918081</v>
       </c>
       <c r="AG7">
-        <v>0.39836065574209906</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.21311475409835082</v>
+        <v>0.5</v>
       </c>
       <c r="AI7">
-        <v>0.19672131147368949</v>
+        <v>0.375</v>
       </c>
       <c r="AJ7">
-        <v>0.14754098360455031</v>
+        <v>1.6777216000000042E-17</v>
       </c>
       <c r="AK7">
-        <v>4.4262295081310438E-2</v>
+        <v>0.125</v>
       </c>
       <c r="AM7">
-        <v>0.39836065573770496</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>0.21311475409836067</v>
+        <v>0.5</v>
       </c>
       <c r="AO7">
-        <v>0.19672131147540986</v>
+        <v>0.375</v>
       </c>
       <c r="AP7">
-        <v>0.1475409836065574</v>
+        <v>1.0995116277760046E-28</v>
       </c>
       <c r="AQ7">
-        <v>4.4262295081967211E-2</v>
+        <v>0.125</v>
       </c>
       <c r="AS7">
-        <v>0.39836065573770502</v>
+        <v>0</v>
       </c>
       <c r="AT7">
-        <v>0.2131147540983607</v>
+        <v>0.5</v>
       </c>
       <c r="AU7">
-        <v>0.19672131147540989</v>
+        <v>0.375</v>
       </c>
       <c r="AV7">
-        <v>0.14754098360655743</v>
+        <v>1.8446744073709675E-45</v>
       </c>
       <c r="AW7">
-        <v>4.4262295081967225E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="8" spans="2:49" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>2.0000000000000004E-2</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.3896</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.21449999999999997</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.20069999999999999</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.15030000000000002</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>4.4900000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0.39849284000000001</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.21311033999999998</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.19666791</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.14748435000000001</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>4.4244560000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.3983606779366925</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.21311475766445998</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.19672130423192222</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.14754097017889653</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>4.4262289988028808E-2</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.39836065574016249</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.21311475409942901</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.1967213114748777</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.14754098360445841</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>4.4262295081072461E-2</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>0.39836065573770502</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>0.21311475409836067</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>0.19672131147540986</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.1475409836065574</v>
+        <v>0</v>
       </c>
       <c r="AQ8">
-        <v>4.4262295081967211E-2</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.39836065573770507</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>0.2131147540983607</v>
+        <v>0</v>
       </c>
       <c r="AU8">
-        <v>0.19672131147540989</v>
+        <v>0</v>
       </c>
       <c r="AV8">
-        <v>0.14754098360655743</v>
+        <v>0</v>
       </c>
       <c r="AW8">
-        <v>4.4262295081967225E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:49" x14ac:dyDescent="0.3">
